--- a/99_その他/メトリック評価結果_第4反復.xlsx
+++ b/99_その他/メトリック評価結果_第4反復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition4\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125E56F-C3FF-4FA3-9F09-26A220EEE4B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D8190-F425-4AEB-9038-0258764D819D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="330" windowWidth="10620" windowHeight="10470" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="反復２" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>NOF</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +230,58 @@
   </si>
   <si>
     <t>メトリクス評価結果(反復4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TypingGameクラスで、サイクロマチック数が10を超えた（11だった）。
+そのため、 目安より、「30 を越える場合，構造に疑問」とあるので、10～30の間は許容範囲内と考える。</t>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TypingGameクラスで、クラス中のメソッドの凝集性欠如の度合いが0.8に達した。
+これは、第1～第4反復を通して最高値であった。</t>
+    <rPh sb="40" eb="41">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>チ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,12 +476,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -442,26 +515,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B41FC-A7D6-4455-9E1A-944FF1DAE2F6}">
   <dimension ref="B1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -800,17 +855,17 @@
     <row r="1" spans="2:13" x14ac:dyDescent="0.4">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
@@ -1016,56 +1071,60 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="2:13" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="2:13" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
@@ -1323,12 +1382,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1512,6 +1565,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
   <ds:schemaRefs>
@@ -1521,22 +1580,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DE2586-3769-48E0-B864-FD64FAF483BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1552,4 +1595,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/99_その他/メトリック評価結果_第4反復.xlsx
+++ b/99_その他/メトリック評価結果_第4反復.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition4\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D8190-F425-4AEB-9038-0258764D819D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A297313-2210-460B-9484-1084208DFEB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>NOF</t>
     <phoneticPr fontId="1"/>
@@ -281,6 +281,47 @@
     </rPh>
     <rPh sb="62" eb="63">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のクラスからTypingGameを経由してUIに関連しているため、その分、凝集性欠如の度合いが高まった。</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ギョウシュウセイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケツジョ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ドア</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if文、switch文が多いため。</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -835,7 +876,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="E13" sqref="E13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1092,7 +1133,9 @@
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -1106,7 +1149,9 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
